--- a/story.xlsx
+++ b/story.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
-  <si>
-    <t>passageId</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+  <si>
+    <t>cardId</t>
   </si>
   <si>
     <t>cardType</t>
@@ -37,7 +37,7 @@
     <t>rightChoiceText</t>
   </si>
   <si>
-    <t>theCollapsedBridge</t>
+    <t>collapsedBridge</t>
   </si>
   <si>
     <t>spatial</t>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Continue.</t>
+  </si>
+  <si>
+    <t>img/hall_01.png</t>
+  </si>
+  <si>
+    <t>img/hall_03.png</t>
+  </si>
+  <si>
+    <t>offIceBuilding</t>
   </si>
   <si>
     <t>This looks like a sort of office building...</t>
@@ -518,7 +527,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -602,7 +611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -613,108 +622,154 @@
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>39</v>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/story.xlsx
+++ b/story.xlsx
@@ -106,10 +106,10 @@
     <t>img/box.png</t>
   </si>
   <si>
+    <t>Leave it.</t>
+  </si>
+  <si>
     <t>See what's inside.</t>
-  </si>
-  <si>
-    <t>Leave it.</t>
   </si>
   <si>
     <t>militaryMetalCrate</t>
@@ -720,10 +720,10 @@
         <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">

--- a/story.xlsx
+++ b/story.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>cardId</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>subType</t>
+  </si>
+  <si>
+    <t>rarity</t>
   </si>
   <si>
     <t>mainText</t>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -222,8 +225,14 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,22 +536,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="47.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="47.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,19 +574,22 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -587,19 +600,22 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -608,67 +624,76 @@
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
+      <c r="D6" s="3">
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -677,21 +702,24 @@
         <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>29</v>
@@ -702,42 +730,48 @@
       <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
@@ -748,19 +782,22 @@
       <c r="G9" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>46</v>
@@ -769,7 +806,10 @@
         <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/story.xlsx
+++ b/story.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>cardId</t>
   </si>
@@ -49,7 +49,7 @@
     <t>fork</t>
   </si>
   <si>
-    <t>The bridge has collapsed here. Which way do you want to pass it?</t>
+    <t>A crossroad. Which way now?</t>
   </si>
   <si>
     <t>img/decision_02.png</t>
@@ -67,25 +67,37 @@
     <t>road</t>
   </si>
   <si>
-    <t>You cautiously enter another zone. A smell of oil makes you dizzy.</t>
-  </si>
-  <si>
-    <t>img/cave_01.png</t>
+    <t>You move on...</t>
+  </si>
+  <si>
+    <t>img/walking.png</t>
   </si>
   <si>
     <t>Continue.</t>
   </si>
   <si>
+    <t>anotherHallway</t>
+  </si>
+  <si>
+    <t>Your steps echo in the hall as you continue walking.</t>
+  </si>
+  <si>
     <t>img/hall_01.png</t>
   </si>
   <si>
+    <t>darkCorridor</t>
+  </si>
+  <si>
+    <t>Yet another zone. A smell of oil makes you dizzy.</t>
+  </si>
+  <si>
     <t>img/hall_03.png</t>
   </si>
   <si>
     <t>offIceBuilding</t>
   </si>
   <si>
-    <t>This looks like a sort of office building...</t>
+    <t>This looks like a collapsed generator. Unfunctional.</t>
   </si>
   <si>
     <t>img/city.png</t>
@@ -103,25 +115,25 @@
     <t>open</t>
   </si>
   <si>
-    <t>You find another military crate. Looks open.</t>
+    <t>A military crate. Should you search it?</t>
   </si>
   <si>
     <t>img/box.png</t>
   </si>
   <si>
+    <t>Yes.</t>
+  </si>
+  <si>
     <t>Leave it.</t>
   </si>
   <si>
-    <t>See what's inside.</t>
-  </si>
-  <si>
     <t>militaryMetalCrate</t>
   </si>
   <si>
     <t>locked</t>
   </si>
   <si>
-    <t>You stumble upon a reinforced military crate. It's locked.</t>
+    <t>A reinforced military crate. It's locked.</t>
   </si>
   <si>
     <t>Use a lockpick.</t>
@@ -136,7 +148,7 @@
     <t>health</t>
   </si>
   <si>
-    <t>This is a roll of a clean bandages.</t>
+    <t>You find a roll of a clean bandages.</t>
   </si>
   <si>
     <t>img/bandage.png</t>
@@ -168,7 +180,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +199,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -217,22 +235,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,14 +563,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="47.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="47.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -562,7 +583,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -579,237 +600,237 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/story.xlsx
+++ b/story.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>cardId</t>
   </si>
@@ -121,10 +121,10 @@
     <t>img/box.png</t>
   </si>
   <si>
-    <t>Yes.</t>
-  </si>
-  <si>
-    <t>Leave it.</t>
+    <t>Move on.</t>
+  </si>
+  <si>
+    <t>Open it.</t>
   </si>
   <si>
     <t>militaryMetalCrate</t>
@@ -136,40 +136,58 @@
     <t>A reinforced military crate. It's locked.</t>
   </si>
   <si>
-    <t>Use a lockpick.</t>
+    <t>batteryBigPack</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>A medkit.</t>
+  </si>
+  <si>
+    <t>img/medkit.png</t>
+  </si>
+  <si>
+    <t>Use it.</t>
+  </si>
+  <si>
+    <t>Take it.</t>
+  </si>
+  <si>
+    <t>batteryPack</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>A pack useful for your googles.</t>
+  </si>
+  <si>
+    <t>img/pack.png</t>
   </si>
   <si>
     <t>cleanBandages</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
     <t>You find a roll of a clean bandages.</t>
   </si>
   <si>
     <t>img/bandage.png</t>
   </si>
   <si>
-    <t>Use it.</t>
-  </si>
-  <si>
-    <t>Take it.</t>
-  </si>
-  <si>
-    <t>lugerP07</t>
+    <t>ak47</t>
   </si>
   <si>
     <t>weapon</t>
   </si>
   <si>
-    <t>A seven bullet automatic handgun.</t>
-  </si>
-  <si>
-    <t>img/luger.png</t>
+    <t>Automatic gun.</t>
+  </si>
+  <si>
+    <t>img/ak.png</t>
   </si>
   <si>
     <t>Equip it.</t>
@@ -180,7 +198,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +217,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -235,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -247,6 +271,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -557,20 +587,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="47.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="47.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -599,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -625,7 +655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -651,7 +681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -677,7 +707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -703,7 +733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -729,7 +759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -755,7 +785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -766,7 +796,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>39</v>
@@ -775,62 +805,114 @@
         <v>34</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="4">
+      <c r="F9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="A11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="4">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>47</v>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
